--- a/Metas.xlsx
+++ b/Metas.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -9,13 +9,111 @@
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+  <si>
+    <t>Casos de Uso</t>
+  </si>
+  <si>
+    <t>Quem?</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Gerenciar dados do estabelecimento</t>
+  </si>
+  <si>
+    <t>Gerenciar funcionário</t>
+  </si>
+  <si>
+    <t>Efetuar login</t>
+  </si>
+  <si>
+    <t>Salvar</t>
+  </si>
+  <si>
+    <t>Editar</t>
+  </si>
+  <si>
+    <t>Listar</t>
+  </si>
+  <si>
+    <t>Excluir/ Inativar</t>
+  </si>
+  <si>
+    <t>Jeferson</t>
+  </si>
+  <si>
+    <t>Gerenciar convenios</t>
+  </si>
+  <si>
+    <t>Gerenciar dados do paciente</t>
+  </si>
+  <si>
+    <t>Gerenciar agenda</t>
+  </si>
+  <si>
+    <t>Registrar assiduidade do paciente</t>
+  </si>
+  <si>
+    <t>Gerenciar lista de espera</t>
+  </si>
+  <si>
+    <t>Gerenciar grupos de anamnese</t>
+  </si>
+  <si>
+    <t>Gerenciar grupos de tratamento</t>
+  </si>
+  <si>
+    <t>Gerenciar modelos de anamnse</t>
+  </si>
+  <si>
+    <t>Gerenciar anamnese do paciente</t>
+  </si>
+  <si>
+    <t>Gerenciar modelos de sessão</t>
+  </si>
+  <si>
+    <t>Gerenciar sessões do paciente</t>
+  </si>
+  <si>
+    <t>Gerenciar gráfico de evolução do paciente</t>
+  </si>
+  <si>
+    <t>Gerenciar atividades do paciente</t>
+  </si>
+  <si>
+    <t>Gerenciar testes psicológicos do paciente</t>
+  </si>
+  <si>
+    <t>Gerenciar cadastro de medicamentos</t>
+  </si>
+  <si>
+    <t>Gerenciar medicamentos do paciente</t>
+  </si>
+  <si>
+    <t>Gerenciar encaminhamentos médicos</t>
+  </si>
+  <si>
+    <t>Gerenciar documentos</t>
+  </si>
+  <si>
+    <t>Registrar status de tratamento</t>
+  </si>
+  <si>
+    <t>Meiriely</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -23,16 +121,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -40,25 +150,94 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Escritório">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -96,9 +275,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Escritório">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,7 +312,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -168,7 +347,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Escritório">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -341,13 +520,350 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="43.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>5</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>6</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>7</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>8</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>9</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>10</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>11</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>12</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>13</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>14</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>15</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>16</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>17</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>18</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>19</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>20</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>21</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>22</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="D1:G1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Metas.xlsx
+++ b/Metas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
   <si>
     <t>Casos de Uso</t>
   </si>
@@ -107,6 +107,15 @@
   </si>
   <si>
     <t>Meiriely</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>Cadastro Psicologo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ok </t>
   </si>
 </sst>
 </file>
@@ -142,7 +151,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -165,11 +174,118 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -177,17 +293,41 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -521,10 +661,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -536,331 +679,361 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-    </row>
-    <row r="2" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4" t="s">
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="8"/>
+    </row>
+    <row r="2" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
+      <c r="D4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+      <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
+      <c r="C7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+      <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+      <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+      <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+      <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+      <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+      <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
+      <c r="A15" s="3">
         <v>13</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
+      <c r="A16" s="3">
         <v>14</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
+      <c r="A17" s="3">
         <v>15</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
+      <c r="A18" s="3">
         <v>16</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
+      <c r="A19" s="3">
         <v>17</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
+      <c r="A20" s="3">
         <v>18</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
     </row>
     <row r="21" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
+      <c r="A21" s="3">
         <v>19</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
+      <c r="A22" s="3">
         <v>20</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
     </row>
     <row r="23" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
+      <c r="A23" s="3">
         <v>21</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
     </row>
     <row r="24" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
+      <c r="A24" s="3">
         <v>22</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
+    <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:C2"/>
-    <mergeCell ref="A1:B2"/>
     <mergeCell ref="D1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
